--- a/src/main/resources/objectLocator/PI.xlsx
+++ b/src/main/resources/objectLocator/PI.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84D0607-BC6B-47CF-92DE-475AD866DC9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC586C05-1247-4AC8-B914-77217F4EB344}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="35" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCGroupingManagement" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <sheet name="ClientCalendar" sheetId="57" r:id="rId45"/>
     <sheet name="ContactLinkManagement" sheetId="59" r:id="rId46"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="2656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="2659">
   <si>
     <t>btnSearch</t>
   </si>
@@ -8033,6 +8033,15 @@
   </si>
   <si>
     <t>className^k-icon k-filter||Parent.idStr^CodesGrid_active_cell</t>
+  </si>
+  <si>
+    <t>RecurringCharge</t>
+  </si>
+  <si>
+    <t>ObjectLocators</t>
+  </si>
+  <si>
+    <t>ObjSearchKey</t>
   </si>
 </sst>
 </file>
@@ -21111,7 +21120,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -28242,10 +28251,10 @@
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28253,9 +28262,11 @@
     <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="122" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="102.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>428</v>
       </c>
@@ -28265,8 +28276,14 @@
       <c r="C1" s="9" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>384</v>
       </c>
@@ -28276,8 +28293,11 @@
       <c r="C2" s="12" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -28288,7 +28308,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>383</v>
       </c>
@@ -28299,7 +28319,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>380</v>
       </c>
@@ -28310,7 +28330,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>378</v>
       </c>
@@ -28321,7 +28341,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>376</v>
       </c>
@@ -28332,7 +28352,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>374</v>
       </c>
@@ -28343,7 +28363,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>373</v>
       </c>
@@ -28354,7 +28374,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>371</v>
       </c>
@@ -28365,7 +28385,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>590</v>
       </c>
@@ -28376,7 +28396,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>606</v>
       </c>
@@ -28387,7 +28407,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
@@ -28398,7 +28418,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>813</v>
       </c>
@@ -28409,7 +28429,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>815</v>
       </c>
@@ -28420,7 +28440,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>225</v>
       </c>

--- a/src/main/resources/objectLocator/PI.xlsx
+++ b/src/main/resources/objectLocator/PI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC586C05-1247-4AC8-B914-77217F4EB344}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75831625-4603-4A80-BD39-17FFAF37A390}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="35" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="35" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCGroupingManagement" sheetId="3" r:id="rId1"/>
@@ -8035,13 +8035,13 @@
     <t>className^k-icon k-filter||Parent.idStr^CodesGrid_active_cell</t>
   </si>
   <si>
-    <t>RecurringCharge</t>
-  </si>
-  <si>
     <t>ObjectLocators</t>
   </si>
   <si>
     <t>ObjSearchKey</t>
+  </si>
+  <si>
+    <t>https://*testamt.com*RecurringCharge*</t>
   </si>
 </sst>
 </file>
@@ -28254,7 +28254,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28262,7 +28262,7 @@
     <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="122" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="102.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28277,10 +28277,10 @@
         <v>430</v>
       </c>
       <c r="D1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="E1" t="s">
         <v>2657</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2658</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -28294,7 +28294,7 @@
         <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
